--- a/data/documentation/spreadsheets/done/BlockchainCommons@Learning-Bitcoin-from-the-Command-Line.xlsx
+++ b/data/documentation/spreadsheets/done/BlockchainCommons@Learning-Bitcoin-from-the-Command-Line.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\USP-2020\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F0280-B8C7-4158-A924-0ECB859494C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3BCDBE-9809-42A6-A138-0402EF62E548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -492,8 +492,8 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -604,42 +604,42 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -647,7 +647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -655,7 +655,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -663,7 +663,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -671,7 +671,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -679,7 +679,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -687,24 +687,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
+      <c r="G32" t="s">
         <v>49</v>
       </c>
     </row>
@@ -712,9 +715,6 @@
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
       <c r="G33" t="s">
         <v>49</v>
       </c>
@@ -723,9 +723,6 @@
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
       <c r="G34" t="s">
         <v>49</v>
       </c>
@@ -734,9 +731,6 @@
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
       <c r="G35" t="s">
         <v>49</v>
       </c>
@@ -745,9 +739,6 @@
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
       <c r="G36" t="s">
         <v>49</v>
       </c>
@@ -756,19 +747,13 @@
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
       </c>
       <c r="G38" t="s">
         <v>49</v>
